--- a/example/game_03_a_dark_room/jobs.xlsx
+++ b/example/game_03_a_dark_room/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,27 +485,33 @@
         <v>Base Rate</v>
       </c>
       <c r="AB1" t="str">
+        <v>Base Cap</v>
+      </c>
+      <c r="AC1" t="str">
         <v>Unlock</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AD1" t="str">
         <v>Unlock Building</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AE1" t="str">
+        <v>Unlock Building Count</v>
+      </c>
+      <c r="AF1" t="str">
         <v>Unlock Resource</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AG1" t="str">
         <v>Unlock Min</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AH1" t="str">
         <v>Unlock Max</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AI1" t="str">
         <v>Unlock Villagers</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AJ1" t="str">
         <v>Unlock Event</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AK1" t="str">
         <v/>
       </c>
     </row>
@@ -592,27 +598,33 @@
         <v>float</v>
       </c>
       <c r="AB2" t="str">
+        <v>float</v>
+      </c>
+      <c r="AC2" t="str">
         <v>{</v>
       </c>
-      <c r="AC2" t="str">
+      <c r="AD2" t="str">
         <v>uint?</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="AE2" t="str">
+        <v>float?</v>
+      </c>
+      <c r="AF2" t="str">
         <v>string?</v>
       </c>
-      <c r="AE2" t="str">
-        <v>float?</v>
-      </c>
-      <c r="AF2" t="str">
-        <v>float?</v>
-      </c>
       <c r="AG2" t="str">
+        <v>float?</v>
+      </c>
+      <c r="AH2" t="str">
+        <v>float?</v>
+      </c>
+      <c r="AI2" t="str">
         <v>uint?</v>
       </c>
-      <c r="AH2" t="str">
+      <c r="AJ2" t="str">
         <v>uint?</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AK2" t="str">
         <v>}</v>
       </c>
     </row>
@@ -699,27 +711,33 @@
         <v>baseRate</v>
       </c>
       <c r="AB3" t="str">
+        <v>baseCap</v>
+      </c>
+      <c r="AC3" t="str">
         <v>unlock</v>
       </c>
-      <c r="AC3" t="str">
+      <c r="AD3" t="str">
         <v>building</v>
       </c>
-      <c r="AD3" t="str">
+      <c r="AE3" t="str">
+        <v>buildingCount</v>
+      </c>
+      <c r="AF3" t="str">
         <v>resource</v>
       </c>
-      <c r="AE3" t="str">
+      <c r="AG3" t="str">
         <v>min</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="AH3" t="str">
         <v>max</v>
       </c>
-      <c r="AG3" t="str">
+      <c r="AI3" t="str">
         <v>villagers</v>
       </c>
-      <c r="AH3" t="str">
+      <c r="AJ3" t="str">
         <v>event</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AK3" t="str">
         <v/>
       </c>
     </row>
@@ -742,6 +760,9 @@
       <c r="AA4">
         <v>1</v>
       </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -765,7 +786,10 @@
       <c r="AA5">
         <v>1</v>
       </c>
-      <c r="AC5">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>30000002</v>
       </c>
     </row>
@@ -794,8 +818,17 @@
       <c r="AA6">
         <v>1</v>
       </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>30000001</v>
+      </c>
+      <c r="AF6" t="str">
+        <v>warmth</v>
+      </c>
       <c r="AG6">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -820,7 +853,10 @@
       <c r="AA7">
         <v>1</v>
       </c>
-      <c r="AC7">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>30000004</v>
       </c>
     </row>
@@ -846,7 +882,10 @@
       <c r="AA8">
         <v>1</v>
       </c>
-      <c r="AC8">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>30000004</v>
       </c>
     </row>
@@ -875,13 +914,16 @@
       <c r="AA9">
         <v>1</v>
       </c>
-      <c r="AC9">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>30000005</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AI9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AK9"/>
   </ignoredErrors>
 </worksheet>
 </file>